--- a/Historical data/IND_HOTEL.xlsx
+++ b/Historical data/IND_HOTEL.xlsx
@@ -934,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S126"/>
+  <dimension ref="A1:AL126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>OPEN-CLOSE</t>
+          <t>CLOSE-OPEN</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>CLOSE-CLOSE</t>
+          <t>TCLOSE-PCLOSE</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
@@ -1084,8 +1084,8 @@
       <c r="N2" s="2" t="n">
         <v>8263</v>
       </c>
-      <c r="O2" t="n">
-        <v>2.5</v>
+      <c r="O2" s="4" t="n">
+        <v>-2.5</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1099,6 +1099,7 @@
       <c r="S2" t="n">
         <v>11.14999999999998</v>
       </c>
+      <c r="T2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1145,8 +1146,8 @@
       <c r="N3" s="2" t="n">
         <v>45198</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.6499999999999773</v>
+      <c r="O3" s="4" t="n">
+        <v>-0.6499999999999773</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1160,6 +1161,7 @@
       <c r="S3" t="n">
         <v>9.799999999999955</v>
       </c>
+      <c r="T3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1206,8 +1208,8 @@
       <c r="N4" s="2" t="n">
         <v>96120</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>-15.80000000000007</v>
+      <c r="O4" t="n">
+        <v>15.80000000000007</v>
       </c>
       <c r="P4" t="n">
         <v>18.85000000000002</v>
@@ -1221,6 +1223,9 @@
       <c r="S4" t="n">
         <v>25.25</v>
       </c>
+      <c r="Y4" s="4" t="n"/>
+      <c r="AD4" s="4" t="n"/>
+      <c r="AI4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1267,8 +1272,8 @@
       <c r="N5" s="2" t="n">
         <v>53689</v>
       </c>
-      <c r="O5" t="n">
-        <v>17.14999999999998</v>
+      <c r="O5" s="4" t="n">
+        <v>-17.14999999999998</v>
       </c>
       <c r="P5" t="n">
         <v>1.950000000000045</v>
@@ -1282,6 +1287,11 @@
       <c r="S5" t="n">
         <v>23.70000000000005</v>
       </c>
+      <c r="T5" s="4" t="n"/>
+      <c r="W5" s="5" t="n"/>
+      <c r="AB5" s="5" t="n"/>
+      <c r="AG5" s="5" t="n"/>
+      <c r="AL5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1328,8 +1338,8 @@
       <c r="N6" s="2" t="n">
         <v>50437</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>-10.25</v>
+      <c r="O6" t="n">
+        <v>10.25</v>
       </c>
       <c r="P6" t="n">
         <v>15.25</v>
@@ -1343,6 +1353,9 @@
       <c r="S6" t="n">
         <v>19</v>
       </c>
+      <c r="Y6" s="4" t="n"/>
+      <c r="AD6" s="4" t="n"/>
+      <c r="AI6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1389,8 +1402,8 @@
       <c r="N7" s="2" t="n">
         <v>221743</v>
       </c>
-      <c r="O7" t="n">
-        <v>14.79999999999995</v>
+      <c r="O7" s="4" t="n">
+        <v>-14.79999999999995</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1404,6 +1417,11 @@
       <c r="S7" t="n">
         <v>32.5</v>
       </c>
+      <c r="T7" s="4" t="n"/>
+      <c r="W7" s="5" t="n"/>
+      <c r="AB7" s="5" t="n"/>
+      <c r="AG7" s="5" t="n"/>
+      <c r="AL7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1450,8 +1468,8 @@
       <c r="N8" s="2" t="n">
         <v>101501</v>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>-14.5</v>
+      <c r="O8" t="n">
+        <v>14.5</v>
       </c>
       <c r="P8" t="n">
         <v>22.75</v>
@@ -1465,6 +1483,9 @@
       <c r="S8" t="n">
         <v>23.75</v>
       </c>
+      <c r="Y8" s="4" t="n"/>
+      <c r="AD8" s="4" t="n"/>
+      <c r="AI8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1511,8 +1532,8 @@
       <c r="N9" s="2" t="n">
         <v>83359</v>
       </c>
-      <c r="O9" s="4" t="n">
-        <v>-18.89999999999998</v>
+      <c r="O9" t="n">
+        <v>18.89999999999998</v>
       </c>
       <c r="P9" t="n">
         <v>23.25</v>
@@ -1526,6 +1547,9 @@
       <c r="S9" t="n">
         <v>30.30000000000007</v>
       </c>
+      <c r="Y9" s="4" t="n"/>
+      <c r="AD9" s="4" t="n"/>
+      <c r="AI9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1572,8 +1596,8 @@
       <c r="N10" s="2" t="n">
         <v>61650</v>
       </c>
-      <c r="O10" s="4" t="n">
-        <v>-8.25</v>
+      <c r="O10" t="n">
+        <v>8.25</v>
       </c>
       <c r="P10" t="n">
         <v>15.89999999999998</v>
@@ -1587,6 +1611,9 @@
       <c r="S10" t="n">
         <v>18.5</v>
       </c>
+      <c r="Y10" s="4" t="n"/>
+      <c r="AD10" s="4" t="n"/>
+      <c r="AI10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1633,8 +1660,8 @@
       <c r="N11" s="2" t="n">
         <v>47220</v>
       </c>
-      <c r="O11" s="4" t="n">
-        <v>-5.649999999999977</v>
+      <c r="O11" t="n">
+        <v>5.649999999999977</v>
       </c>
       <c r="P11" t="n">
         <v>8.200000000000045</v>
@@ -1648,6 +1675,9 @@
       <c r="S11" t="n">
         <v>8.400000000000091</v>
       </c>
+      <c r="Y11" s="4" t="n"/>
+      <c r="AD11" s="4" t="n"/>
+      <c r="AI11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1694,8 +1724,8 @@
       <c r="N12" s="2" t="n">
         <v>50682</v>
       </c>
-      <c r="O12" s="4" t="n">
-        <v>-3.950000000000045</v>
+      <c r="O12" t="n">
+        <v>3.950000000000045</v>
       </c>
       <c r="P12" t="n">
         <v>6.100000000000023</v>
@@ -1709,6 +1739,9 @@
       <c r="S12" t="n">
         <v>9.5</v>
       </c>
+      <c r="Y12" s="4" t="n"/>
+      <c r="AD12" s="4" t="n"/>
+      <c r="AI12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1755,8 +1788,8 @@
       <c r="N13" s="2" t="n">
         <v>48646</v>
       </c>
-      <c r="O13" s="4" t="n">
-        <v>-7.799999999999955</v>
+      <c r="O13" t="n">
+        <v>7.799999999999955</v>
       </c>
       <c r="P13" t="n">
         <v>11.14999999999998</v>
@@ -1770,6 +1803,9 @@
       <c r="S13" t="n">
         <v>15.19999999999993</v>
       </c>
+      <c r="Y13" s="4" t="n"/>
+      <c r="AD13" s="4" t="n"/>
+      <c r="AI13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1816,8 +1852,8 @@
       <c r="N14" s="2" t="n">
         <v>30412</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
+      <c r="O14" s="4" t="n">
+        <v>-1.25</v>
       </c>
       <c r="P14" t="n">
         <v>2.649999999999977</v>
@@ -1831,6 +1867,11 @@
       <c r="S14" t="n">
         <v>6.549999999999955</v>
       </c>
+      <c r="T14" s="4" t="n"/>
+      <c r="W14" s="5" t="n"/>
+      <c r="AB14" s="5" t="n"/>
+      <c r="AG14" s="5" t="n"/>
+      <c r="AL14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1877,8 +1918,8 @@
       <c r="N15" s="2" t="n">
         <v>48489</v>
       </c>
-      <c r="O15" s="4" t="n">
-        <v>-9.700000000000045</v>
+      <c r="O15" t="n">
+        <v>9.700000000000045</v>
       </c>
       <c r="P15" t="n">
         <v>11.39999999999998</v>
@@ -1892,6 +1933,9 @@
       <c r="S15" t="n">
         <v>14.39999999999998</v>
       </c>
+      <c r="Y15" s="4" t="n"/>
+      <c r="AD15" s="4" t="n"/>
+      <c r="AI15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1938,8 +1982,8 @@
       <c r="N16" s="2" t="n">
         <v>44611</v>
       </c>
-      <c r="O16" t="n">
-        <v>6.799999999999955</v>
+      <c r="O16" s="4" t="n">
+        <v>-6.799999999999955</v>
       </c>
       <c r="P16" t="n">
         <v>1.800000000000068</v>
@@ -1953,6 +1997,11 @@
       <c r="S16" t="n">
         <v>16.80000000000007</v>
       </c>
+      <c r="T16" s="4" t="n"/>
+      <c r="W16" s="5" t="n"/>
+      <c r="AB16" s="5" t="n"/>
+      <c r="AG16" s="5" t="n"/>
+      <c r="AL16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1999,8 +2048,8 @@
       <c r="N17" s="2" t="n">
         <v>95277</v>
       </c>
-      <c r="O17" t="n">
-        <v>5.149999999999977</v>
+      <c r="O17" s="4" t="n">
+        <v>-5.149999999999977</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2014,6 +2063,11 @@
       <c r="S17" t="n">
         <v>12.19999999999993</v>
       </c>
+      <c r="T17" s="4" t="n"/>
+      <c r="W17" s="5" t="n"/>
+      <c r="AB17" s="5" t="n"/>
+      <c r="AG17" s="5" t="n"/>
+      <c r="AL17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2060,8 +2114,8 @@
       <c r="N18" s="2" t="n">
         <v>91195</v>
       </c>
-      <c r="O18" s="4" t="n">
-        <v>-7.350000000000023</v>
+      <c r="O18" t="n">
+        <v>7.350000000000023</v>
       </c>
       <c r="P18" t="n">
         <v>11.39999999999998</v>
@@ -2075,6 +2129,9 @@
       <c r="S18" t="n">
         <v>13.54999999999995</v>
       </c>
+      <c r="Y18" s="4" t="n"/>
+      <c r="AD18" s="4" t="n"/>
+      <c r="AI18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2121,8 +2178,8 @@
       <c r="N19" s="2" t="n">
         <v>51638</v>
       </c>
-      <c r="O19" t="n">
-        <v>2.350000000000023</v>
+      <c r="O19" s="4" t="n">
+        <v>-2.350000000000023</v>
       </c>
       <c r="P19" t="n">
         <v>3.049999999999955</v>
@@ -2136,6 +2193,7 @@
       <c r="S19" t="n">
         <v>7.5</v>
       </c>
+      <c r="T19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2182,8 +2240,8 @@
       <c r="N20" s="2" t="n">
         <v>99176</v>
       </c>
-      <c r="O20" s="4" t="n">
-        <v>-16.35000000000002</v>
+      <c r="O20" t="n">
+        <v>16.35000000000002</v>
       </c>
       <c r="P20" t="n">
         <v>19.25</v>
@@ -2197,6 +2255,9 @@
       <c r="S20" t="n">
         <v>19.25</v>
       </c>
+      <c r="Y20" s="4" t="n"/>
+      <c r="AD20" s="4" t="n"/>
+      <c r="AI20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2243,8 +2304,8 @@
       <c r="N21" s="2" t="n">
         <v>34699</v>
       </c>
-      <c r="O21" t="n">
-        <v>3.850000000000023</v>
+      <c r="O21" s="4" t="n">
+        <v>-3.850000000000023</v>
       </c>
       <c r="P21" t="n">
         <v>1.5</v>
@@ -2258,6 +2319,11 @@
       <c r="S21" t="n">
         <v>6.949999999999989</v>
       </c>
+      <c r="T21" s="4" t="n"/>
+      <c r="W21" s="5" t="n"/>
+      <c r="AB21" s="5" t="n"/>
+      <c r="AG21" s="5" t="n"/>
+      <c r="AL21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2304,8 +2370,8 @@
       <c r="N22" s="2" t="n">
         <v>77898</v>
       </c>
-      <c r="O22" s="4" t="n">
-        <v>-4.100000000000023</v>
+      <c r="O22" t="n">
+        <v>4.100000000000023</v>
       </c>
       <c r="P22" t="n">
         <v>8.450000000000045</v>
@@ -2319,6 +2385,9 @@
       <c r="S22" t="n">
         <v>13.10000000000002</v>
       </c>
+      <c r="Y22" s="4" t="n"/>
+      <c r="AD22" s="4" t="n"/>
+      <c r="AI22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2365,8 +2434,8 @@
       <c r="N23" s="2" t="n">
         <v>122176</v>
       </c>
-      <c r="O23" t="n">
-        <v>15.95000000000005</v>
+      <c r="O23" s="4" t="n">
+        <v>-15.95000000000005</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2380,6 +2449,7 @@
       <c r="S23" t="n">
         <v>18.20000000000005</v>
       </c>
+      <c r="T23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2426,8 +2496,8 @@
       <c r="N24" s="2" t="n">
         <v>43824</v>
       </c>
-      <c r="O24" t="n">
-        <v>0.8999999999999773</v>
+      <c r="O24" s="4" t="n">
+        <v>-0.8999999999999773</v>
       </c>
       <c r="P24" t="n">
         <v>1.050000000000011</v>
@@ -2441,6 +2511,7 @@
       <c r="S24" t="n">
         <v>9.550000000000011</v>
       </c>
+      <c r="T24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2487,8 +2558,8 @@
       <c r="N25" s="2" t="n">
         <v>52751</v>
       </c>
-      <c r="O25" t="n">
-        <v>3.200000000000045</v>
+      <c r="O25" s="4" t="n">
+        <v>-3.200000000000045</v>
       </c>
       <c r="P25" t="n">
         <v>0.3499999999999659</v>
@@ -2502,6 +2573,11 @@
       <c r="S25" t="n">
         <v>8.199999999999989</v>
       </c>
+      <c r="T25" s="4" t="n"/>
+      <c r="W25" s="5" t="n"/>
+      <c r="AB25" s="5" t="n"/>
+      <c r="AG25" s="5" t="n"/>
+      <c r="AL25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2548,8 +2624,8 @@
       <c r="N26" s="2" t="n">
         <v>58744</v>
       </c>
-      <c r="O26" t="n">
-        <v>6.800000000000011</v>
+      <c r="O26" s="4" t="n">
+        <v>-6.800000000000011</v>
       </c>
       <c r="P26" t="n">
         <v>1.050000000000011</v>
@@ -2563,6 +2639,11 @@
       <c r="S26" t="n">
         <v>13.90000000000003</v>
       </c>
+      <c r="T26" s="4" t="n"/>
+      <c r="W26" s="5" t="n"/>
+      <c r="AB26" s="5" t="n"/>
+      <c r="AG26" s="5" t="n"/>
+      <c r="AL26" s="5" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2609,8 +2690,8 @@
       <c r="N27" s="2" t="n">
         <v>119380</v>
       </c>
-      <c r="O27" s="4" t="n">
-        <v>-22.54999999999995</v>
+      <c r="O27" t="n">
+        <v>22.54999999999995</v>
       </c>
       <c r="P27" t="n">
         <v>26.39999999999998</v>
@@ -2624,6 +2705,9 @@
       <c r="S27" t="n">
         <v>26.39999999999998</v>
       </c>
+      <c r="Y27" s="4" t="n"/>
+      <c r="AD27" s="4" t="n"/>
+      <c r="AI27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2670,8 +2754,8 @@
       <c r="N28" s="2" t="n">
         <v>40001</v>
       </c>
-      <c r="O28" t="n">
-        <v>8.899999999999977</v>
+      <c r="O28" s="4" t="n">
+        <v>-8.899999999999977</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2685,6 +2769,11 @@
       <c r="S28" t="n">
         <v>16.5</v>
       </c>
+      <c r="T28" s="4" t="n"/>
+      <c r="W28" s="5" t="n"/>
+      <c r="AB28" s="5" t="n"/>
+      <c r="AG28" s="5" t="n"/>
+      <c r="AL28" s="5" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2731,8 +2820,8 @@
       <c r="N29" s="2" t="n">
         <v>64812</v>
       </c>
-      <c r="O29" s="4" t="n">
-        <v>-8.300000000000011</v>
+      <c r="O29" t="n">
+        <v>8.300000000000011</v>
       </c>
       <c r="P29" t="n">
         <v>9.849999999999966</v>
@@ -2746,6 +2835,9 @@
       <c r="S29" t="n">
         <v>15.75</v>
       </c>
+      <c r="Y29" s="4" t="n"/>
+      <c r="AD29" s="4" t="n"/>
+      <c r="AI29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2792,8 +2884,8 @@
       <c r="N30" s="2" t="n">
         <v>64373</v>
       </c>
-      <c r="O30" t="n">
-        <v>13.69999999999999</v>
+      <c r="O30" s="4" t="n">
+        <v>-13.69999999999999</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -2807,6 +2899,11 @@
       <c r="S30" t="n">
         <v>19.14999999999998</v>
       </c>
+      <c r="T30" s="4" t="n"/>
+      <c r="W30" s="5" t="n"/>
+      <c r="AB30" s="5" t="n"/>
+      <c r="AG30" s="5" t="n"/>
+      <c r="AL30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2853,8 +2950,8 @@
       <c r="N31" s="2" t="n">
         <v>41077</v>
       </c>
-      <c r="O31" t="n">
-        <v>5.899999999999977</v>
+      <c r="O31" s="4" t="n">
+        <v>-5.899999999999977</v>
       </c>
       <c r="P31" t="n">
         <v>1.300000000000011</v>
@@ -2868,6 +2965,11 @@
       <c r="S31" t="n">
         <v>11.85000000000002</v>
       </c>
+      <c r="T31" s="4" t="n"/>
+      <c r="W31" s="5" t="n"/>
+      <c r="AB31" s="5" t="n"/>
+      <c r="AG31" s="5" t="n"/>
+      <c r="AL31" s="5" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2914,8 +3016,8 @@
       <c r="N32" s="2" t="n">
         <v>61201</v>
       </c>
-      <c r="O32" s="4" t="n">
-        <v>-14.19999999999999</v>
+      <c r="O32" t="n">
+        <v>14.19999999999999</v>
       </c>
       <c r="P32" t="n">
         <v>16.64999999999998</v>
@@ -2929,6 +3031,9 @@
       <c r="S32" t="n">
         <v>20.89999999999998</v>
       </c>
+      <c r="Y32" s="4" t="n"/>
+      <c r="AD32" s="4" t="n"/>
+      <c r="AI32" s="4" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2975,8 +3080,8 @@
       <c r="N33" s="2" t="n">
         <v>79811</v>
       </c>
-      <c r="O33" s="4" t="n">
-        <v>-4.950000000000045</v>
+      <c r="O33" t="n">
+        <v>4.950000000000045</v>
       </c>
       <c r="P33" t="n">
         <v>9.150000000000034</v>
@@ -2990,6 +3095,9 @@
       <c r="S33" t="n">
         <v>17.19999999999999</v>
       </c>
+      <c r="Y33" s="4" t="n"/>
+      <c r="AD33" s="4" t="n"/>
+      <c r="AI33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3036,8 +3144,8 @@
       <c r="N34" s="2" t="n">
         <v>55950</v>
       </c>
-      <c r="O34" t="n">
-        <v>4.050000000000011</v>
+      <c r="O34" s="4" t="n">
+        <v>-4.050000000000011</v>
       </c>
       <c r="P34" t="n">
         <v>3.149999999999977</v>
@@ -3051,6 +3159,11 @@
       <c r="S34" t="n">
         <v>9.149999999999977</v>
       </c>
+      <c r="T34" s="4" t="n"/>
+      <c r="W34" s="5" t="n"/>
+      <c r="AB34" s="5" t="n"/>
+      <c r="AG34" s="5" t="n"/>
+      <c r="AL34" s="5" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3097,8 +3210,8 @@
       <c r="N35" s="2" t="n">
         <v>70892</v>
       </c>
-      <c r="O35" t="n">
-        <v>10.44999999999999</v>
+      <c r="O35" s="4" t="n">
+        <v>-10.44999999999999</v>
       </c>
       <c r="P35" t="n">
         <v>0.05000000000001137</v>
@@ -3112,6 +3225,11 @@
       <c r="S35" t="n">
         <v>17.55000000000001</v>
       </c>
+      <c r="T35" s="4" t="n"/>
+      <c r="W35" s="5" t="n"/>
+      <c r="AB35" s="5" t="n"/>
+      <c r="AG35" s="5" t="n"/>
+      <c r="AL35" s="5" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3158,8 +3276,8 @@
       <c r="N36" s="2" t="n">
         <v>77386</v>
       </c>
-      <c r="O36" s="4" t="n">
-        <v>-11.94999999999999</v>
+      <c r="O36" t="n">
+        <v>11.94999999999999</v>
       </c>
       <c r="P36" t="n">
         <v>13.5</v>
@@ -3173,6 +3291,9 @@
       <c r="S36" t="n">
         <v>18.69999999999999</v>
       </c>
+      <c r="Y36" s="4" t="n"/>
+      <c r="AD36" s="4" t="n"/>
+      <c r="AI36" s="4" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3219,8 +3340,8 @@
       <c r="N37" s="2" t="n">
         <v>31042</v>
       </c>
-      <c r="O37" t="n">
-        <v>2.449999999999989</v>
+      <c r="O37" s="4" t="n">
+        <v>-2.449999999999989</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3234,6 +3355,7 @@
       <c r="S37" t="n">
         <v>7.649999999999977</v>
       </c>
+      <c r="T37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3280,8 +3402,8 @@
       <c r="N38" s="2" t="n">
         <v>32869</v>
       </c>
-      <c r="O38" t="n">
-        <v>0.3999999999999773</v>
+      <c r="O38" s="4" t="n">
+        <v>-0.3999999999999773</v>
       </c>
       <c r="P38" t="n">
         <v>3.900000000000034</v>
@@ -3295,6 +3417,7 @@
       <c r="S38" t="n">
         <v>5.650000000000034</v>
       </c>
+      <c r="T38" s="4" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3341,8 +3464,8 @@
       <c r="N39" s="2" t="n">
         <v>29418</v>
       </c>
-      <c r="O39" t="n">
-        <v>0.1000000000000227</v>
+      <c r="O39" s="4" t="n">
+        <v>-0.1000000000000227</v>
       </c>
       <c r="P39" t="n">
         <v>2.5</v>
@@ -3356,6 +3479,11 @@
       <c r="S39" t="n">
         <v>7.75</v>
       </c>
+      <c r="T39" s="4" t="n"/>
+      <c r="W39" s="5" t="n"/>
+      <c r="AB39" s="5" t="n"/>
+      <c r="AG39" s="5" t="n"/>
+      <c r="AL39" s="5" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3402,8 +3530,8 @@
       <c r="N40" s="2" t="n">
         <v>37661</v>
       </c>
-      <c r="O40" t="n">
-        <v>0.3499999999999659</v>
+      <c r="O40" s="4" t="n">
+        <v>-0.3499999999999659</v>
       </c>
       <c r="P40" t="n">
         <v>1.800000000000011</v>
@@ -3417,6 +3545,7 @@
       <c r="S40" t="n">
         <v>8.5</v>
       </c>
+      <c r="T40" s="4" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3463,8 +3592,8 @@
       <c r="N41" s="2" t="n">
         <v>41826</v>
       </c>
-      <c r="O41" t="n">
-        <v>9.800000000000011</v>
+      <c r="O41" s="4" t="n">
+        <v>-9.800000000000011</v>
       </c>
       <c r="P41" t="n">
         <v>0.05000000000001137</v>
@@ -3478,6 +3607,11 @@
       <c r="S41" t="n">
         <v>11.5</v>
       </c>
+      <c r="T41" s="4" t="n"/>
+      <c r="W41" s="5" t="n"/>
+      <c r="AB41" s="5" t="n"/>
+      <c r="AG41" s="5" t="n"/>
+      <c r="AL41" s="5" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3524,8 +3658,8 @@
       <c r="N42" s="2" t="n">
         <v>83607</v>
       </c>
-      <c r="O42" t="n">
-        <v>10.94999999999999</v>
+      <c r="O42" s="4" t="n">
+        <v>-10.94999999999999</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -3539,6 +3673,11 @@
       <c r="S42" t="n">
         <v>13.10000000000002</v>
       </c>
+      <c r="T42" s="4" t="n"/>
+      <c r="W42" s="5" t="n"/>
+      <c r="AB42" s="5" t="n"/>
+      <c r="AG42" s="5" t="n"/>
+      <c r="AL42" s="5" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3585,8 +3724,8 @@
       <c r="N43" s="2" t="n">
         <v>72774</v>
       </c>
-      <c r="O43" s="4" t="n">
-        <v>-7.949999999999989</v>
+      <c r="O43" t="n">
+        <v>7.949999999999989</v>
       </c>
       <c r="P43" t="n">
         <v>9.799999999999955</v>
@@ -3600,6 +3739,9 @@
       <c r="S43" t="n">
         <v>13.54999999999995</v>
       </c>
+      <c r="Y43" s="4" t="n"/>
+      <c r="AD43" s="4" t="n"/>
+      <c r="AI43" s="4" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3646,8 +3788,8 @@
       <c r="N44" s="2" t="n">
         <v>69702</v>
       </c>
-      <c r="O44" s="4" t="n">
-        <v>-12.19999999999999</v>
+      <c r="O44" t="n">
+        <v>12.19999999999999</v>
       </c>
       <c r="P44" t="n">
         <v>15.75</v>
@@ -3661,6 +3803,9 @@
       <c r="S44" t="n">
         <v>17</v>
       </c>
+      <c r="Y44" s="4" t="n"/>
+      <c r="AD44" s="4" t="n"/>
+      <c r="AI44" s="4" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3707,8 +3852,8 @@
       <c r="N45" s="2" t="n">
         <v>41555</v>
       </c>
-      <c r="O45" s="4" t="n">
-        <v>-1.199999999999989</v>
+      <c r="O45" t="n">
+        <v>1.199999999999989</v>
       </c>
       <c r="P45" t="n">
         <v>3.399999999999977</v>
@@ -3722,6 +3867,9 @@
       <c r="S45" t="n">
         <v>11.14999999999998</v>
       </c>
+      <c r="Y45" s="4" t="n"/>
+      <c r="AD45" s="4" t="n"/>
+      <c r="AI45" s="4" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3768,8 +3916,8 @@
       <c r="N46" s="2" t="n">
         <v>21256</v>
       </c>
-      <c r="O46" t="n">
-        <v>3.899999999999977</v>
+      <c r="O46" s="4" t="n">
+        <v>-3.899999999999977</v>
       </c>
       <c r="P46" t="n">
         <v>1.399999999999977</v>
@@ -3783,6 +3931,11 @@
       <c r="S46" t="n">
         <v>6.949999999999989</v>
       </c>
+      <c r="T46" s="4" t="n"/>
+      <c r="W46" s="5" t="n"/>
+      <c r="AB46" s="5" t="n"/>
+      <c r="AG46" s="5" t="n"/>
+      <c r="AL46" s="5" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3829,8 +3982,8 @@
       <c r="N47" s="2" t="n">
         <v>31457</v>
       </c>
-      <c r="O47" s="4" t="n">
-        <v>-4.150000000000034</v>
+      <c r="O47" t="n">
+        <v>4.150000000000034</v>
       </c>
       <c r="P47" t="n">
         <v>5.300000000000011</v>
@@ -3844,6 +3997,9 @@
       <c r="S47" t="n">
         <v>8</v>
       </c>
+      <c r="Y47" s="4" t="n"/>
+      <c r="AD47" s="4" t="n"/>
+      <c r="AI47" s="4" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3890,8 +4046,8 @@
       <c r="N48" s="2" t="n">
         <v>71843</v>
       </c>
-      <c r="O48" t="n">
-        <v>1.550000000000011</v>
+      <c r="O48" s="4" t="n">
+        <v>-1.550000000000011</v>
       </c>
       <c r="P48" t="n">
         <v>7.399999999999977</v>
@@ -3905,6 +4061,11 @@
       <c r="S48" t="n">
         <v>11.29999999999995</v>
       </c>
+      <c r="T48" s="4" t="n"/>
+      <c r="W48" s="5" t="n"/>
+      <c r="AB48" s="5" t="n"/>
+      <c r="AG48" s="5" t="n"/>
+      <c r="AL48" s="5" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3951,8 +4112,8 @@
       <c r="N49" s="2" t="n">
         <v>38321</v>
       </c>
-      <c r="O49" t="n">
-        <v>0.7999999999999545</v>
+      <c r="O49" s="4" t="n">
+        <v>-0.7999999999999545</v>
       </c>
       <c r="P49" t="n">
         <v>4.550000000000011</v>
@@ -3966,6 +4127,7 @@
       <c r="S49" t="n">
         <v>7.75</v>
       </c>
+      <c r="T49" s="4" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4012,8 +4174,8 @@
       <c r="N50" s="2" t="n">
         <v>31764</v>
       </c>
-      <c r="O50" t="n">
-        <v>3.899999999999977</v>
+      <c r="O50" s="4" t="n">
+        <v>-3.899999999999977</v>
       </c>
       <c r="P50" t="n">
         <v>3.150000000000034</v>
@@ -4027,6 +4189,11 @@
       <c r="S50" t="n">
         <v>8.600000000000023</v>
       </c>
+      <c r="T50" s="4" t="n"/>
+      <c r="W50" s="5" t="n"/>
+      <c r="AB50" s="5" t="n"/>
+      <c r="AG50" s="5" t="n"/>
+      <c r="AL50" s="5" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4073,8 +4240,8 @@
       <c r="N51" s="2" t="n">
         <v>52478</v>
       </c>
-      <c r="O51" s="4" t="n">
-        <v>-10.19999999999999</v>
+      <c r="O51" t="n">
+        <v>10.19999999999999</v>
       </c>
       <c r="P51" t="n">
         <v>11.39999999999998</v>
@@ -4088,6 +4255,9 @@
       <c r="S51" t="n">
         <v>12.5</v>
       </c>
+      <c r="Y51" s="4" t="n"/>
+      <c r="AD51" s="4" t="n"/>
+      <c r="AI51" s="4" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4134,8 +4304,8 @@
       <c r="N52" s="2" t="n">
         <v>41812</v>
       </c>
-      <c r="O52" s="4" t="n">
-        <v>-9.150000000000034</v>
+      <c r="O52" t="n">
+        <v>9.150000000000034</v>
       </c>
       <c r="P52" t="n">
         <v>10.44999999999999</v>
@@ -4149,6 +4319,9 @@
       <c r="S52" t="n">
         <v>13.75</v>
       </c>
+      <c r="Y52" s="4" t="n"/>
+      <c r="AD52" s="4" t="n"/>
+      <c r="AI52" s="4" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4195,8 +4368,8 @@
       <c r="N53" s="2" t="n">
         <v>43044</v>
       </c>
-      <c r="O53" t="n">
-        <v>23.75</v>
+      <c r="O53" s="4" t="n">
+        <v>-23.75</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -4210,6 +4383,11 @@
       <c r="S53" t="n">
         <v>28</v>
       </c>
+      <c r="T53" s="4" t="n"/>
+      <c r="W53" s="5" t="n"/>
+      <c r="AB53" s="5" t="n"/>
+      <c r="AG53" s="5" t="n"/>
+      <c r="AL53" s="5" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4256,8 +4434,8 @@
       <c r="N54" s="2" t="n">
         <v>33338</v>
       </c>
-      <c r="O54" t="n">
-        <v>5.399999999999977</v>
+      <c r="O54" s="4" t="n">
+        <v>-5.399999999999977</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -4271,6 +4449,11 @@
       <c r="S54" t="n">
         <v>8.599999999999966</v>
       </c>
+      <c r="T54" s="4" t="n"/>
+      <c r="W54" s="5" t="n"/>
+      <c r="AB54" s="5" t="n"/>
+      <c r="AG54" s="5" t="n"/>
+      <c r="AL54" s="5" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4317,8 +4500,8 @@
       <c r="N55" s="2" t="n">
         <v>72268</v>
       </c>
-      <c r="O55" s="4" t="n">
-        <v>-9.299999999999955</v>
+      <c r="O55" t="n">
+        <v>9.299999999999955</v>
       </c>
       <c r="P55" t="n">
         <v>10.39999999999998</v>
@@ -4332,6 +4515,9 @@
       <c r="S55" t="n">
         <v>13.89999999999998</v>
       </c>
+      <c r="Y55" s="4" t="n"/>
+      <c r="AD55" s="4" t="n"/>
+      <c r="AI55" s="4" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4378,8 +4564,8 @@
       <c r="N56" s="2" t="n">
         <v>30533</v>
       </c>
-      <c r="O56" t="n">
-        <v>4.950000000000045</v>
+      <c r="O56" s="4" t="n">
+        <v>-4.950000000000045</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -4393,6 +4579,11 @@
       <c r="S56" t="n">
         <v>7.200000000000045</v>
       </c>
+      <c r="T56" s="4" t="n"/>
+      <c r="W56" s="5" t="n"/>
+      <c r="AB56" s="5" t="n"/>
+      <c r="AG56" s="5" t="n"/>
+      <c r="AL56" s="5" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4439,8 +4630,8 @@
       <c r="N57" s="2" t="n">
         <v>31212</v>
       </c>
-      <c r="O57" s="4" t="n">
-        <v>-4.149999999999977</v>
+      <c r="O57" t="n">
+        <v>4.149999999999977</v>
       </c>
       <c r="P57" t="n">
         <v>6.5</v>
@@ -4454,6 +4645,9 @@
       <c r="S57" t="n">
         <v>9.050000000000011</v>
       </c>
+      <c r="Y57" s="4" t="n"/>
+      <c r="AD57" s="4" t="n"/>
+      <c r="AI57" s="4" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4500,8 +4694,8 @@
       <c r="N58" s="2" t="n">
         <v>26257</v>
       </c>
-      <c r="O58" t="n">
-        <v>2.050000000000011</v>
+      <c r="O58" s="4" t="n">
+        <v>-2.050000000000011</v>
       </c>
       <c r="P58" t="n">
         <v>2.25</v>
@@ -4515,6 +4709,11 @@
       <c r="S58" t="n">
         <v>7.200000000000045</v>
       </c>
+      <c r="T58" s="4" t="n"/>
+      <c r="W58" s="5" t="n"/>
+      <c r="AB58" s="5" t="n"/>
+      <c r="AG58" s="5" t="n"/>
+      <c r="AL58" s="5" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4561,8 +4760,8 @@
       <c r="N59" s="2" t="n">
         <v>35192</v>
       </c>
-      <c r="O59" t="n">
-        <v>2.25</v>
+      <c r="O59" s="4" t="n">
+        <v>-2.25</v>
       </c>
       <c r="P59" t="n">
         <v>5.350000000000023</v>
@@ -4576,6 +4775,11 @@
       <c r="S59" t="n">
         <v>10.20000000000005</v>
       </c>
+      <c r="T59" s="4" t="n"/>
+      <c r="W59" s="5" t="n"/>
+      <c r="AB59" s="5" t="n"/>
+      <c r="AG59" s="5" t="n"/>
+      <c r="AL59" s="5" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4622,8 +4826,8 @@
       <c r="N60" s="2" t="n">
         <v>34785</v>
       </c>
-      <c r="O60" s="4" t="n">
-        <v>-5.5</v>
+      <c r="O60" t="n">
+        <v>5.5</v>
       </c>
       <c r="P60" t="n">
         <v>6.399999999999977</v>
@@ -4637,6 +4841,9 @@
       <c r="S60" t="n">
         <v>9.349999999999966</v>
       </c>
+      <c r="Y60" s="4" t="n"/>
+      <c r="AD60" s="4" t="n"/>
+      <c r="AI60" s="4" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4683,8 +4890,8 @@
       <c r="N61" s="2" t="n">
         <v>41620</v>
       </c>
-      <c r="O61" t="n">
-        <v>5.449999999999989</v>
+      <c r="O61" s="4" t="n">
+        <v>-5.449999999999989</v>
       </c>
       <c r="P61" t="n">
         <v>0.8000000000000114</v>
@@ -4698,6 +4905,11 @@
       <c r="S61" t="n">
         <v>9.399999999999977</v>
       </c>
+      <c r="T61" s="4" t="n"/>
+      <c r="W61" s="5" t="n"/>
+      <c r="AB61" s="5" t="n"/>
+      <c r="AG61" s="5" t="n"/>
+      <c r="AL61" s="5" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4744,8 +4956,8 @@
       <c r="N62" s="2" t="n">
         <v>30760</v>
       </c>
-      <c r="O62" s="4" t="n">
-        <v>-2.399999999999977</v>
+      <c r="O62" t="n">
+        <v>2.399999999999977</v>
       </c>
       <c r="P62" t="n">
         <v>4.349999999999966</v>
@@ -4759,6 +4971,9 @@
       <c r="S62" t="n">
         <v>7.199999999999989</v>
       </c>
+      <c r="Y62" s="4" t="n"/>
+      <c r="AD62" s="4" t="n"/>
+      <c r="AI62" s="4" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4805,8 +5020,8 @@
       <c r="N63" s="2" t="n">
         <v>38736</v>
       </c>
-      <c r="O63" s="4" t="n">
-        <v>-2.300000000000011</v>
+      <c r="O63" t="n">
+        <v>2.300000000000011</v>
       </c>
       <c r="P63" t="n">
         <v>5.150000000000034</v>
@@ -4820,6 +5035,9 @@
       <c r="S63" t="n">
         <v>6.75</v>
       </c>
+      <c r="Y63" s="4" t="n"/>
+      <c r="AD63" s="4" t="n"/>
+      <c r="AI63" s="4" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4866,8 +5084,8 @@
       <c r="N64" s="2" t="n">
         <v>31772</v>
       </c>
-      <c r="O64" s="4" t="n">
-        <v>-0.5</v>
+      <c r="O64" t="n">
+        <v>0.5</v>
       </c>
       <c r="P64" t="n">
         <v>5.600000000000023</v>
@@ -4881,6 +5099,9 @@
       <c r="S64" t="n">
         <v>10.40000000000003</v>
       </c>
+      <c r="Y64" s="4" t="n"/>
+      <c r="AD64" s="4" t="n"/>
+      <c r="AI64" s="4" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4927,8 +5148,8 @@
       <c r="N65" s="2" t="n">
         <v>55688</v>
       </c>
-      <c r="O65" s="4" t="n">
-        <v>-4</v>
+      <c r="O65" t="n">
+        <v>4</v>
       </c>
       <c r="P65" t="n">
         <v>6.050000000000011</v>
@@ -4942,6 +5163,9 @@
       <c r="S65" t="n">
         <v>8.5</v>
       </c>
+      <c r="Y65" s="4" t="n"/>
+      <c r="AD65" s="4" t="n"/>
+      <c r="AI65" s="4" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4988,8 +5212,8 @@
       <c r="N66" s="2" t="n">
         <v>50436</v>
       </c>
-      <c r="O66" s="4" t="n">
-        <v>-4.399999999999977</v>
+      <c r="O66" t="n">
+        <v>4.399999999999977</v>
       </c>
       <c r="P66" t="n">
         <v>7.899999999999977</v>
@@ -5003,6 +5227,9 @@
       <c r="S66" t="n">
         <v>8.199999999999989</v>
       </c>
+      <c r="Y66" s="4" t="n"/>
+      <c r="AD66" s="4" t="n"/>
+      <c r="AI66" s="4" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5049,8 +5276,8 @@
       <c r="N67" s="2" t="n">
         <v>54041</v>
       </c>
-      <c r="O67" s="4" t="n">
-        <v>-1.649999999999977</v>
+      <c r="O67" t="n">
+        <v>1.649999999999977</v>
       </c>
       <c r="P67" t="n">
         <v>3.099999999999966</v>
@@ -5064,6 +5291,9 @@
       <c r="S67" t="n">
         <v>5.149999999999977</v>
       </c>
+      <c r="Y67" s="4" t="n"/>
+      <c r="AD67" s="4" t="n"/>
+      <c r="AI67" s="4" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5110,8 +5340,8 @@
       <c r="N68" s="2" t="n">
         <v>29488</v>
       </c>
-      <c r="O68" t="n">
-        <v>3.75</v>
+      <c r="O68" s="4" t="n">
+        <v>-3.75</v>
       </c>
       <c r="P68" t="n">
         <v>2.199999999999989</v>
@@ -5125,6 +5355,11 @@
       <c r="S68" t="n">
         <v>7</v>
       </c>
+      <c r="T68" s="4" t="n"/>
+      <c r="W68" s="5" t="n"/>
+      <c r="AB68" s="5" t="n"/>
+      <c r="AG68" s="5" t="n"/>
+      <c r="AL68" s="5" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5171,8 +5406,8 @@
       <c r="N69" s="2" t="n">
         <v>47959</v>
       </c>
-      <c r="O69" s="4" t="n">
-        <v>-0.75</v>
+      <c r="O69" t="n">
+        <v>0.75</v>
       </c>
       <c r="P69" t="n">
         <v>2.75</v>
@@ -5186,6 +5421,9 @@
       <c r="S69" t="n">
         <v>6.449999999999989</v>
       </c>
+      <c r="Y69" s="4" t="n"/>
+      <c r="AD69" s="4" t="n"/>
+      <c r="AI69" s="4" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5232,8 +5470,8 @@
       <c r="N70" s="2" t="n">
         <v>34822</v>
       </c>
-      <c r="O70" s="4" t="n">
-        <v>-1.5</v>
+      <c r="O70" t="n">
+        <v>1.5</v>
       </c>
       <c r="P70" t="n">
         <v>3.350000000000023</v>
@@ -5247,6 +5485,9 @@
       <c r="S70" t="n">
         <v>4.850000000000023</v>
       </c>
+      <c r="Y70" s="4" t="n"/>
+      <c r="AD70" s="4" t="n"/>
+      <c r="AI70" s="4" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5293,8 +5534,8 @@
       <c r="N71" s="2" t="n">
         <v>27183</v>
       </c>
-      <c r="O71" s="4" t="n">
-        <v>-3.100000000000023</v>
+      <c r="O71" t="n">
+        <v>3.100000000000023</v>
       </c>
       <c r="P71" t="n">
         <v>5.350000000000023</v>
@@ -5308,6 +5549,9 @@
       <c r="S71" t="n">
         <v>6.650000000000034</v>
       </c>
+      <c r="Y71" s="4" t="n"/>
+      <c r="AD71" s="4" t="n"/>
+      <c r="AI71" s="4" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5354,8 +5598,8 @@
       <c r="N72" s="2" t="n">
         <v>18896</v>
       </c>
-      <c r="O72" t="n">
-        <v>3.800000000000011</v>
+      <c r="O72" s="4" t="n">
+        <v>-3.800000000000011</v>
       </c>
       <c r="P72" t="n">
         <v>0.3999999999999773</v>
@@ -5369,6 +5613,11 @@
       <c r="S72" t="n">
         <v>7.899999999999977</v>
       </c>
+      <c r="T72" s="4" t="n"/>
+      <c r="W72" s="5" t="n"/>
+      <c r="AB72" s="5" t="n"/>
+      <c r="AG72" s="5" t="n"/>
+      <c r="AL72" s="5" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5415,8 +5664,8 @@
       <c r="N73" s="2" t="n">
         <v>23067</v>
       </c>
-      <c r="O73" t="n">
-        <v>0.3000000000000114</v>
+      <c r="O73" s="4" t="n">
+        <v>-0.3000000000000114</v>
       </c>
       <c r="P73" t="n">
         <v>0.6999999999999886</v>
@@ -5430,6 +5679,7 @@
       <c r="S73" t="n">
         <v>3.900000000000034</v>
       </c>
+      <c r="T73" s="4" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5476,8 +5726,8 @@
       <c r="N74" s="2" t="n">
         <v>57351</v>
       </c>
-      <c r="O74" s="4" t="n">
-        <v>-3.550000000000011</v>
+      <c r="O74" t="n">
+        <v>3.550000000000011</v>
       </c>
       <c r="P74" t="n">
         <v>6.550000000000011</v>
@@ -5491,6 +5741,9 @@
       <c r="S74" t="n">
         <v>10.35000000000002</v>
       </c>
+      <c r="Y74" s="4" t="n"/>
+      <c r="AD74" s="4" t="n"/>
+      <c r="AI74" s="4" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5537,8 +5790,8 @@
       <c r="N75" s="2" t="n">
         <v>24285</v>
       </c>
-      <c r="O75" t="n">
-        <v>0.8000000000000114</v>
+      <c r="O75" s="4" t="n">
+        <v>-0.8000000000000114</v>
       </c>
       <c r="P75" t="n">
         <v>3.449999999999989</v>
@@ -5552,6 +5805,11 @@
       <c r="S75" t="n">
         <v>5.699999999999989</v>
       </c>
+      <c r="T75" s="4" t="n"/>
+      <c r="W75" s="5" t="n"/>
+      <c r="AB75" s="5" t="n"/>
+      <c r="AG75" s="5" t="n"/>
+      <c r="AL75" s="5" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5598,8 +5856,8 @@
       <c r="N76" s="2" t="n">
         <v>30246</v>
       </c>
-      <c r="O76" s="4" t="n">
-        <v>-1.449999999999989</v>
+      <c r="O76" t="n">
+        <v>1.449999999999989</v>
       </c>
       <c r="P76" t="n">
         <v>3.800000000000011</v>
@@ -5613,6 +5871,9 @@
       <c r="S76" t="n">
         <v>6</v>
       </c>
+      <c r="Y76" s="4" t="n"/>
+      <c r="AD76" s="4" t="n"/>
+      <c r="AI76" s="4" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -5659,8 +5920,8 @@
       <c r="N77" s="2" t="n">
         <v>73914</v>
       </c>
-      <c r="O77" t="n">
-        <v>0.6000000000000227</v>
+      <c r="O77" s="4" t="n">
+        <v>-0.6000000000000227</v>
       </c>
       <c r="P77" t="n">
         <v>1.5</v>
@@ -5674,6 +5935,7 @@
       <c r="S77" t="n">
         <v>3.899999999999977</v>
       </c>
+      <c r="T77" s="4" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5720,8 +5982,8 @@
       <c r="N78" s="2" t="n">
         <v>42959</v>
       </c>
-      <c r="O78" s="4" t="n">
-        <v>-0.6499999999999773</v>
+      <c r="O78" t="n">
+        <v>0.6499999999999773</v>
       </c>
       <c r="P78" t="n">
         <v>1.25</v>
@@ -5735,6 +5997,13 @@
       <c r="S78" t="n">
         <v>5.050000000000011</v>
       </c>
+      <c r="W78" s="5" t="n"/>
+      <c r="Y78" s="4" t="n"/>
+      <c r="AB78" s="5" t="n"/>
+      <c r="AD78" s="4" t="n"/>
+      <c r="AG78" s="5" t="n"/>
+      <c r="AI78" s="4" t="n"/>
+      <c r="AL78" s="5" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5781,8 +6050,8 @@
       <c r="N79" s="2" t="n">
         <v>9618</v>
       </c>
-      <c r="O79" t="n">
-        <v>2.149999999999977</v>
+      <c r="O79" s="4" t="n">
+        <v>-2.149999999999977</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -5796,6 +6065,7 @@
       <c r="S79" t="n">
         <v>3.399999999999977</v>
       </c>
+      <c r="T79" s="4" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5842,8 +6112,8 @@
       <c r="N80" s="2" t="n">
         <v>35167</v>
       </c>
-      <c r="O80" s="4" t="n">
-        <v>-4.449999999999989</v>
+      <c r="O80" t="n">
+        <v>4.449999999999989</v>
       </c>
       <c r="P80" t="n">
         <v>5.100000000000023</v>
@@ -5857,6 +6127,9 @@
       <c r="S80" t="n">
         <v>6.900000000000034</v>
       </c>
+      <c r="Y80" s="4" t="n"/>
+      <c r="AD80" s="4" t="n"/>
+      <c r="AI80" s="4" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5903,8 +6176,8 @@
       <c r="N81" s="2" t="n">
         <v>27382</v>
       </c>
-      <c r="O81" t="n">
-        <v>0.1999999999999886</v>
+      <c r="O81" s="4" t="n">
+        <v>-0.1999999999999886</v>
       </c>
       <c r="P81" t="n">
         <v>1.25</v>
@@ -5918,6 +6191,11 @@
       <c r="S81" t="n">
         <v>3.349999999999966</v>
       </c>
+      <c r="T81" s="4" t="n"/>
+      <c r="W81" s="5" t="n"/>
+      <c r="AB81" s="5" t="n"/>
+      <c r="AG81" s="5" t="n"/>
+      <c r="AL81" s="5" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5964,8 +6242,8 @@
       <c r="N82" s="2" t="n">
         <v>26013</v>
       </c>
-      <c r="O82" s="4" t="n">
-        <v>-2.199999999999989</v>
+      <c r="O82" t="n">
+        <v>2.199999999999989</v>
       </c>
       <c r="P82" t="n">
         <v>3.100000000000023</v>
@@ -5979,6 +6257,9 @@
       <c r="S82" t="n">
         <v>7.550000000000011</v>
       </c>
+      <c r="Y82" s="4" t="n"/>
+      <c r="AD82" s="4" t="n"/>
+      <c r="AI82" s="4" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6025,8 +6306,8 @@
       <c r="N83" s="2" t="n">
         <v>41057</v>
       </c>
-      <c r="O83" s="4" t="n">
-        <v>-4.899999999999977</v>
+      <c r="O83" t="n">
+        <v>4.899999999999977</v>
       </c>
       <c r="P83" t="n">
         <v>6.75</v>
@@ -6040,6 +6321,9 @@
       <c r="S83" t="n">
         <v>9.150000000000034</v>
       </c>
+      <c r="Y83" s="4" t="n"/>
+      <c r="AD83" s="4" t="n"/>
+      <c r="AI83" s="4" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6086,8 +6370,8 @@
       <c r="N84" s="2" t="n">
         <v>64862</v>
       </c>
-      <c r="O84" s="4" t="n">
-        <v>-1.550000000000011</v>
+      <c r="O84" t="n">
+        <v>1.550000000000011</v>
       </c>
       <c r="P84" t="n">
         <v>3.849999999999966</v>
@@ -6101,6 +6385,9 @@
       <c r="S84" t="n">
         <v>4.399999999999977</v>
       </c>
+      <c r="Y84" s="4" t="n"/>
+      <c r="AD84" s="4" t="n"/>
+      <c r="AI84" s="4" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -6147,8 +6434,8 @@
       <c r="N85" s="2" t="n">
         <v>25343</v>
       </c>
-      <c r="O85" t="n">
-        <v>0.1000000000000227</v>
+      <c r="O85" s="4" t="n">
+        <v>-0.1000000000000227</v>
       </c>
       <c r="P85" t="n">
         <v>0.6000000000000227</v>
@@ -6162,6 +6449,7 @@
       <c r="S85" t="n">
         <v>4.600000000000023</v>
       </c>
+      <c r="T85" s="4" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -6208,8 +6496,8 @@
       <c r="N86" s="2" t="n">
         <v>34444</v>
       </c>
-      <c r="O86" t="n">
-        <v>1.699999999999989</v>
+      <c r="O86" s="4" t="n">
+        <v>-1.699999999999989</v>
       </c>
       <c r="P86" t="n">
         <v>1.75</v>
@@ -6223,6 +6511,7 @@
       <c r="S86" t="n">
         <v>6.399999999999977</v>
       </c>
+      <c r="T86" s="4" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -6269,8 +6558,8 @@
       <c r="N87" s="2" t="n">
         <v>39575</v>
       </c>
-      <c r="O87" s="4" t="n">
-        <v>-5.100000000000023</v>
+      <c r="O87" t="n">
+        <v>5.100000000000023</v>
       </c>
       <c r="P87" t="n">
         <v>6.949999999999989</v>
@@ -6284,6 +6573,9 @@
       <c r="S87" t="n">
         <v>6.949999999999989</v>
       </c>
+      <c r="Y87" s="4" t="n"/>
+      <c r="AD87" s="4" t="n"/>
+      <c r="AI87" s="4" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -6330,8 +6622,8 @@
       <c r="N88" s="2" t="n">
         <v>32063</v>
       </c>
-      <c r="O88" t="n">
-        <v>1.450000000000045</v>
+      <c r="O88" s="4" t="n">
+        <v>-1.450000000000045</v>
       </c>
       <c r="P88" t="n">
         <v>1.049999999999955</v>
@@ -6345,6 +6637,7 @@
       <c r="S88" t="n">
         <v>5.799999999999955</v>
       </c>
+      <c r="T88" s="4" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -6391,8 +6684,8 @@
       <c r="N89" s="2" t="n">
         <v>89141</v>
       </c>
-      <c r="O89" s="4" t="n">
-        <v>-4.300000000000011</v>
+      <c r="O89" t="n">
+        <v>4.300000000000011</v>
       </c>
       <c r="P89" t="n">
         <v>6.899999999999977</v>
@@ -6406,6 +6699,9 @@
       <c r="S89" t="n">
         <v>12.05000000000001</v>
       </c>
+      <c r="Y89" s="4" t="n"/>
+      <c r="AD89" s="4" t="n"/>
+      <c r="AI89" s="4" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -6452,8 +6748,8 @@
       <c r="N90" s="2" t="n">
         <v>86161</v>
       </c>
-      <c r="O90" t="n">
-        <v>3.449999999999989</v>
+      <c r="O90" s="4" t="n">
+        <v>-3.449999999999989</v>
       </c>
       <c r="P90" t="n">
         <v>6.850000000000023</v>
@@ -6467,6 +6763,11 @@
       <c r="S90" t="n">
         <v>13.25</v>
       </c>
+      <c r="T90" s="4" t="n"/>
+      <c r="W90" s="5" t="n"/>
+      <c r="AB90" s="5" t="n"/>
+      <c r="AG90" s="5" t="n"/>
+      <c r="AL90" s="5" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -6513,8 +6814,8 @@
       <c r="N91" s="2" t="n">
         <v>91096</v>
       </c>
-      <c r="O91" t="n">
-        <v>10.44999999999999</v>
+      <c r="O91" s="4" t="n">
+        <v>-10.44999999999999</v>
       </c>
       <c r="P91" t="n">
         <v>2.350000000000023</v>
@@ -6528,6 +6829,11 @@
       <c r="S91" t="n">
         <v>15.95000000000005</v>
       </c>
+      <c r="T91" s="4" t="n"/>
+      <c r="W91" s="5" t="n"/>
+      <c r="AB91" s="5" t="n"/>
+      <c r="AG91" s="5" t="n"/>
+      <c r="AL91" s="5" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -6574,8 +6880,8 @@
       <c r="N92" s="2" t="n">
         <v>85541</v>
       </c>
-      <c r="O92" t="n">
-        <v>7.550000000000011</v>
+      <c r="O92" s="4" t="n">
+        <v>-7.550000000000011</v>
       </c>
       <c r="P92" t="n">
         <v>1.149999999999977</v>
@@ -6589,6 +6895,11 @@
       <c r="S92" t="n">
         <v>10.64999999999998</v>
       </c>
+      <c r="T92" s="4" t="n"/>
+      <c r="W92" s="5" t="n"/>
+      <c r="AB92" s="5" t="n"/>
+      <c r="AG92" s="5" t="n"/>
+      <c r="AL92" s="5" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -6635,8 +6946,8 @@
       <c r="N93" s="2" t="n">
         <v>105787</v>
       </c>
-      <c r="O93" t="n">
-        <v>10.14999999999998</v>
+      <c r="O93" s="4" t="n">
+        <v>-10.14999999999998</v>
       </c>
       <c r="P93" t="n">
         <v>2</v>
@@ -6650,6 +6961,11 @@
       <c r="S93" t="n">
         <v>14.75</v>
       </c>
+      <c r="T93" s="4" t="n"/>
+      <c r="W93" s="5" t="n"/>
+      <c r="AB93" s="5" t="n"/>
+      <c r="AG93" s="5" t="n"/>
+      <c r="AL93" s="5" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -6696,8 +7012,8 @@
       <c r="N94" s="2" t="n">
         <v>57192</v>
       </c>
-      <c r="O94" t="n">
-        <v>8.050000000000011</v>
+      <c r="O94" s="4" t="n">
+        <v>-8.050000000000011</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -6711,6 +7027,11 @@
       <c r="S94" t="n">
         <v>9.399999999999977</v>
       </c>
+      <c r="T94" s="4" t="n"/>
+      <c r="W94" s="5" t="n"/>
+      <c r="AB94" s="5" t="n"/>
+      <c r="AG94" s="5" t="n"/>
+      <c r="AL94" s="5" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -6757,8 +7078,8 @@
       <c r="N95" s="2" t="n">
         <v>53428</v>
       </c>
-      <c r="O95" s="4" t="n">
-        <v>-2.300000000000011</v>
+      <c r="O95" t="n">
+        <v>2.300000000000011</v>
       </c>
       <c r="P95" t="n">
         <v>4.300000000000011</v>
@@ -6772,6 +7093,9 @@
       <c r="S95" t="n">
         <v>8.449999999999989</v>
       </c>
+      <c r="Y95" s="4" t="n"/>
+      <c r="AD95" s="4" t="n"/>
+      <c r="AI95" s="4" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -6818,8 +7142,8 @@
       <c r="N96" s="2" t="n">
         <v>45869</v>
       </c>
-      <c r="O96" t="n">
-        <v>6.949999999999989</v>
+      <c r="O96" s="4" t="n">
+        <v>-6.949999999999989</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -6833,6 +7157,11 @@
       <c r="S96" t="n">
         <v>10.19999999999999</v>
       </c>
+      <c r="T96" s="4" t="n"/>
+      <c r="W96" s="5" t="n"/>
+      <c r="AB96" s="5" t="n"/>
+      <c r="AG96" s="5" t="n"/>
+      <c r="AL96" s="5" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -6879,8 +7208,8 @@
       <c r="N97" s="2" t="n">
         <v>38110</v>
       </c>
-      <c r="O97" s="4" t="n">
-        <v>-3.100000000000023</v>
+      <c r="O97" t="n">
+        <v>3.100000000000023</v>
       </c>
       <c r="P97" t="n">
         <v>6.449999999999989</v>
@@ -6894,6 +7223,9 @@
       <c r="S97" t="n">
         <v>6.949999999999989</v>
       </c>
+      <c r="Y97" s="4" t="n"/>
+      <c r="AD97" s="4" t="n"/>
+      <c r="AI97" s="4" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -6940,8 +7272,8 @@
       <c r="N98" s="2" t="n">
         <v>35561</v>
       </c>
-      <c r="O98" s="4" t="n">
-        <v>-2.699999999999989</v>
+      <c r="O98" t="n">
+        <v>2.699999999999989</v>
       </c>
       <c r="P98" t="n">
         <v>6.5</v>
@@ -6955,6 +7287,9 @@
       <c r="S98" t="n">
         <v>8.75</v>
       </c>
+      <c r="Y98" s="4" t="n"/>
+      <c r="AD98" s="4" t="n"/>
+      <c r="AI98" s="4" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -7001,8 +7336,8 @@
       <c r="N99" s="2" t="n">
         <v>43430</v>
       </c>
-      <c r="O99" s="4" t="n">
-        <v>-0.75</v>
+      <c r="O99" t="n">
+        <v>0.75</v>
       </c>
       <c r="P99" t="n">
         <v>3.350000000000023</v>
@@ -7016,6 +7351,13 @@
       <c r="S99" t="n">
         <v>6.150000000000034</v>
       </c>
+      <c r="W99" s="5" t="n"/>
+      <c r="Y99" s="4" t="n"/>
+      <c r="AB99" s="5" t="n"/>
+      <c r="AD99" s="4" t="n"/>
+      <c r="AG99" s="5" t="n"/>
+      <c r="AI99" s="4" t="n"/>
+      <c r="AL99" s="5" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -7062,8 +7404,8 @@
       <c r="N100" s="2" t="n">
         <v>34183</v>
       </c>
-      <c r="O100" t="n">
-        <v>1.5</v>
+      <c r="O100" s="4" t="n">
+        <v>-1.5</v>
       </c>
       <c r="P100" t="n">
         <v>1.800000000000011</v>
@@ -7077,6 +7419,7 @@
       <c r="S100" t="n">
         <v>6.25</v>
       </c>
+      <c r="T100" s="4" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -7123,8 +7466,8 @@
       <c r="N101" s="2" t="n">
         <v>36237</v>
       </c>
-      <c r="O101" t="n">
-        <v>2.599999999999966</v>
+      <c r="O101" s="4" t="n">
+        <v>-2.599999999999966</v>
       </c>
       <c r="P101" t="n">
         <v>5.449999999999989</v>
@@ -7138,6 +7481,11 @@
       <c r="S101" t="n">
         <v>8.599999999999966</v>
       </c>
+      <c r="T101" s="4" t="n"/>
+      <c r="W101" s="5" t="n"/>
+      <c r="AB101" s="5" t="n"/>
+      <c r="AG101" s="5" t="n"/>
+      <c r="AL101" s="5" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -7184,8 +7532,8 @@
       <c r="N102" s="2" t="n">
         <v>23092</v>
       </c>
-      <c r="O102" t="n">
-        <v>2.049999999999955</v>
+      <c r="O102" s="4" t="n">
+        <v>-2.049999999999955</v>
       </c>
       <c r="P102" t="n">
         <v>0.8500000000000227</v>
@@ -7199,6 +7547,7 @@
       <c r="S102" t="n">
         <v>3.800000000000011</v>
       </c>
+      <c r="T102" s="4" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -7245,8 +7594,8 @@
       <c r="N103" s="2" t="n">
         <v>44655</v>
       </c>
-      <c r="O103" t="n">
-        <v>4.5</v>
+      <c r="O103" s="4" t="n">
+        <v>-4.5</v>
       </c>
       <c r="P103" t="n">
         <v>0.6999999999999886</v>
@@ -7260,6 +7609,11 @@
       <c r="S103" t="n">
         <v>7.399999999999977</v>
       </c>
+      <c r="T103" s="4" t="n"/>
+      <c r="W103" s="5" t="n"/>
+      <c r="AB103" s="5" t="n"/>
+      <c r="AG103" s="5" t="n"/>
+      <c r="AL103" s="5" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -7306,8 +7660,8 @@
       <c r="N104" s="2" t="n">
         <v>37641</v>
       </c>
-      <c r="O104" s="4" t="n">
-        <v>-3.449999999999989</v>
+      <c r="O104" t="n">
+        <v>3.449999999999989</v>
       </c>
       <c r="P104" t="n">
         <v>5.25</v>
@@ -7321,6 +7675,9 @@
       <c r="S104" t="n">
         <v>6.5</v>
       </c>
+      <c r="Y104" s="4" t="n"/>
+      <c r="AD104" s="4" t="n"/>
+      <c r="AI104" s="4" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -7367,8 +7724,8 @@
       <c r="N105" s="2" t="n">
         <v>47681</v>
       </c>
-      <c r="O105" s="4" t="n">
-        <v>-6.399999999999977</v>
+      <c r="O105" t="n">
+        <v>6.399999999999977</v>
       </c>
       <c r="P105" t="n">
         <v>8.199999999999989</v>
@@ -7382,6 +7739,9 @@
       <c r="S105" t="n">
         <v>11.40000000000003</v>
       </c>
+      <c r="Y105" s="4" t="n"/>
+      <c r="AD105" s="4" t="n"/>
+      <c r="AI105" s="4" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -7428,8 +7788,8 @@
       <c r="N106" s="2" t="n">
         <v>48522</v>
       </c>
-      <c r="O106" t="n">
-        <v>5.199999999999989</v>
+      <c r="O106" s="4" t="n">
+        <v>-5.199999999999989</v>
       </c>
       <c r="P106" t="n">
         <v>4.25</v>
@@ -7443,6 +7803,11 @@
       <c r="S106" t="n">
         <v>14.39999999999998</v>
       </c>
+      <c r="T106" s="4" t="n"/>
+      <c r="W106" s="5" t="n"/>
+      <c r="AB106" s="5" t="n"/>
+      <c r="AG106" s="5" t="n"/>
+      <c r="AL106" s="5" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -7489,8 +7854,8 @@
       <c r="N107" s="2" t="n">
         <v>61125</v>
       </c>
-      <c r="O107" s="4" t="n">
-        <v>-1</v>
+      <c r="O107" t="n">
+        <v>1</v>
       </c>
       <c r="P107" t="n">
         <v>4.449999999999989</v>
@@ -7504,6 +7869,9 @@
       <c r="S107" t="n">
         <v>10.44999999999999</v>
       </c>
+      <c r="Y107" s="4" t="n"/>
+      <c r="AD107" s="4" t="n"/>
+      <c r="AI107" s="4" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -7550,8 +7918,8 @@
       <c r="N108" s="2" t="n">
         <v>58160</v>
       </c>
-      <c r="O108" s="4" t="n">
-        <v>-2.200000000000045</v>
+      <c r="O108" t="n">
+        <v>2.200000000000045</v>
       </c>
       <c r="P108" t="n">
         <v>3.350000000000023</v>
@@ -7565,6 +7933,9 @@
       <c r="S108" t="n">
         <v>8.949999999999989</v>
       </c>
+      <c r="Y108" s="4" t="n"/>
+      <c r="AD108" s="4" t="n"/>
+      <c r="AI108" s="4" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -7611,8 +7982,8 @@
       <c r="N109" s="2" t="n">
         <v>31465</v>
       </c>
-      <c r="O109" t="n">
-        <v>7.800000000000011</v>
+      <c r="O109" s="4" t="n">
+        <v>-7.800000000000011</v>
       </c>
       <c r="P109" t="n">
         <v>1.75</v>
@@ -7626,6 +7997,11 @@
       <c r="S109" t="n">
         <v>10.69999999999999</v>
       </c>
+      <c r="T109" s="4" t="n"/>
+      <c r="W109" s="5" t="n"/>
+      <c r="AB109" s="5" t="n"/>
+      <c r="AG109" s="5" t="n"/>
+      <c r="AL109" s="5" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -7672,8 +8048,8 @@
       <c r="N110" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="O110" s="4" t="n">
-        <v>-0.1999999999999886</v>
+      <c r="O110" t="n">
+        <v>0.1999999999999886</v>
       </c>
       <c r="P110" t="n">
         <v>1.949999999999989</v>
@@ -7687,6 +8063,9 @@
       <c r="S110" t="n">
         <v>3.5</v>
       </c>
+      <c r="Y110" s="4" t="n"/>
+      <c r="AD110" s="4" t="n"/>
+      <c r="AI110" s="4" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -7733,8 +8112,8 @@
       <c r="N111" s="2" t="n">
         <v>43109</v>
       </c>
-      <c r="O111" s="4" t="n">
-        <v>-2.050000000000011</v>
+      <c r="O111" t="n">
+        <v>2.050000000000011</v>
       </c>
       <c r="P111" t="n">
         <v>5.75</v>
@@ -7748,6 +8127,9 @@
       <c r="S111" t="n">
         <v>8.649999999999977</v>
       </c>
+      <c r="Y111" s="4" t="n"/>
+      <c r="AD111" s="4" t="n"/>
+      <c r="AI111" s="4" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -7794,8 +8176,8 @@
       <c r="N112" s="2" t="n">
         <v>85883</v>
       </c>
-      <c r="O112" s="4" t="n">
-        <v>-2.350000000000023</v>
+      <c r="O112" t="n">
+        <v>2.350000000000023</v>
       </c>
       <c r="P112" t="n">
         <v>4.5</v>
@@ -7809,6 +8191,9 @@
       <c r="S112" t="n">
         <v>10.30000000000001</v>
       </c>
+      <c r="Y112" s="4" t="n"/>
+      <c r="AD112" s="4" t="n"/>
+      <c r="AI112" s="4" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -7855,8 +8240,8 @@
       <c r="N113" s="2" t="n">
         <v>45635</v>
       </c>
-      <c r="O113" t="n">
-        <v>0.75</v>
+      <c r="O113" s="4" t="n">
+        <v>-0.75</v>
       </c>
       <c r="P113" t="n">
         <v>4.350000000000023</v>
@@ -7870,6 +8255,11 @@
       <c r="S113" t="n">
         <v>8.700000000000045</v>
       </c>
+      <c r="T113" s="4" t="n"/>
+      <c r="W113" s="5" t="n"/>
+      <c r="AB113" s="5" t="n"/>
+      <c r="AG113" s="5" t="n"/>
+      <c r="AL113" s="5" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -7916,8 +8306,8 @@
       <c r="N114" s="2" t="n">
         <v>35622</v>
       </c>
-      <c r="O114" t="n">
-        <v>9.949999999999989</v>
+      <c r="O114" s="4" t="n">
+        <v>-9.949999999999989</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -7931,6 +8321,11 @@
       <c r="S114" t="n">
         <v>11.69999999999999</v>
       </c>
+      <c r="T114" s="4" t="n"/>
+      <c r="W114" s="5" t="n"/>
+      <c r="AB114" s="5" t="n"/>
+      <c r="AG114" s="5" t="n"/>
+      <c r="AL114" s="5" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -7977,8 +8372,8 @@
       <c r="N115" s="2" t="n">
         <v>37325</v>
       </c>
-      <c r="O115" s="4" t="n">
-        <v>-1.75</v>
+      <c r="O115" t="n">
+        <v>1.75</v>
       </c>
       <c r="P115" t="n">
         <v>5.300000000000011</v>
@@ -7992,6 +8387,9 @@
       <c r="S115" t="n">
         <v>8.550000000000011</v>
       </c>
+      <c r="Y115" s="4" t="n"/>
+      <c r="AD115" s="4" t="n"/>
+      <c r="AI115" s="4" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -8038,8 +8436,8 @@
       <c r="N116" s="2" t="n">
         <v>31343</v>
       </c>
-      <c r="O116" t="n">
-        <v>4.050000000000011</v>
+      <c r="O116" s="4" t="n">
+        <v>-4.050000000000011</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -8053,6 +8451,11 @@
       <c r="S116" t="n">
         <v>6.300000000000011</v>
       </c>
+      <c r="T116" s="4" t="n"/>
+      <c r="W116" s="5" t="n"/>
+      <c r="AB116" s="5" t="n"/>
+      <c r="AG116" s="5" t="n"/>
+      <c r="AL116" s="5" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -8099,8 +8502,8 @@
       <c r="N117" s="2" t="n">
         <v>69184</v>
       </c>
-      <c r="O117" t="n">
-        <v>11.35000000000002</v>
+      <c r="O117" s="4" t="n">
+        <v>-11.35000000000002</v>
       </c>
       <c r="P117" t="n">
         <v>3.949999999999989</v>
@@ -8114,6 +8517,11 @@
       <c r="S117" t="n">
         <v>16.55000000000001</v>
       </c>
+      <c r="T117" s="4" t="n"/>
+      <c r="W117" s="5" t="n"/>
+      <c r="AB117" s="5" t="n"/>
+      <c r="AG117" s="5" t="n"/>
+      <c r="AL117" s="5" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -8160,8 +8568,8 @@
       <c r="N118" s="2" t="n">
         <v>38090</v>
       </c>
-      <c r="O118" s="4" t="n">
-        <v>-8.949999999999989</v>
+      <c r="O118" t="n">
+        <v>8.949999999999989</v>
       </c>
       <c r="P118" t="n">
         <v>10</v>
@@ -8175,6 +8583,9 @@
       <c r="S118" t="n">
         <v>11</v>
       </c>
+      <c r="Y118" s="4" t="n"/>
+      <c r="AD118" s="4" t="n"/>
+      <c r="AI118" s="4" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -8221,8 +8632,8 @@
       <c r="N119" s="2" t="n">
         <v>67280</v>
       </c>
-      <c r="O119" t="n">
-        <v>5.350000000000023</v>
+      <c r="O119" s="4" t="n">
+        <v>-5.350000000000023</v>
       </c>
       <c r="P119" t="n">
         <v>0.9499999999999886</v>
@@ -8236,6 +8647,11 @@
       <c r="S119" t="n">
         <v>13.59999999999997</v>
       </c>
+      <c r="T119" s="4" t="n"/>
+      <c r="W119" s="5" t="n"/>
+      <c r="AB119" s="5" t="n"/>
+      <c r="AG119" s="5" t="n"/>
+      <c r="AL119" s="5" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -8282,8 +8698,8 @@
       <c r="N120" s="2" t="n">
         <v>53113</v>
       </c>
-      <c r="O120" t="n">
-        <v>10.44999999999999</v>
+      <c r="O120" s="4" t="n">
+        <v>-10.44999999999999</v>
       </c>
       <c r="P120" t="n">
         <v>2.75</v>
@@ -8297,6 +8713,11 @@
       <c r="S120" t="n">
         <v>14.69999999999999</v>
       </c>
+      <c r="T120" s="4" t="n"/>
+      <c r="W120" s="5" t="n"/>
+      <c r="AB120" s="5" t="n"/>
+      <c r="AG120" s="5" t="n"/>
+      <c r="AL120" s="5" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -8343,8 +8764,8 @@
       <c r="N121" s="2" t="n">
         <v>39546</v>
       </c>
-      <c r="O121" t="n">
-        <v>0.5</v>
+      <c r="O121" s="4" t="n">
+        <v>-0.5</v>
       </c>
       <c r="P121" t="n">
         <v>2.199999999999989</v>
@@ -8358,6 +8779,7 @@
       <c r="S121" t="n">
         <v>4.899999999999977</v>
       </c>
+      <c r="T121" s="4" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -8404,8 +8826,8 @@
       <c r="N122" s="2" t="n">
         <v>42849</v>
       </c>
-      <c r="O122" t="n">
-        <v>0.3999999999999773</v>
+      <c r="O122" s="4" t="n">
+        <v>-0.3999999999999773</v>
       </c>
       <c r="P122" t="n">
         <v>2.449999999999989</v>
@@ -8419,6 +8841,7 @@
       <c r="S122" t="n">
         <v>4.399999999999977</v>
       </c>
+      <c r="T122" s="4" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -8465,8 +8888,8 @@
       <c r="N123" s="2" t="n">
         <v>58918</v>
       </c>
-      <c r="O123" t="n">
-        <v>5</v>
+      <c r="O123" s="4" t="n">
+        <v>-5</v>
       </c>
       <c r="P123" t="n">
         <v>4.449999999999989</v>
@@ -8480,6 +8903,11 @@
       <c r="S123" t="n">
         <v>11.44999999999999</v>
       </c>
+      <c r="T123" s="4" t="n"/>
+      <c r="W123" s="5" t="n"/>
+      <c r="AB123" s="5" t="n"/>
+      <c r="AG123" s="5" t="n"/>
+      <c r="AL123" s="5" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -8526,8 +8954,8 @@
       <c r="N124" s="2" t="n">
         <v>64624</v>
       </c>
-      <c r="O124" s="4" t="n">
-        <v>-7.600000000000023</v>
+      <c r="O124" t="n">
+        <v>7.600000000000023</v>
       </c>
       <c r="P124" t="n">
         <v>9.300000000000011</v>
@@ -8541,6 +8969,9 @@
       <c r="S124" t="n">
         <v>11.14999999999998</v>
       </c>
+      <c r="Y124" s="4" t="n"/>
+      <c r="AD124" s="4" t="n"/>
+      <c r="AI124" s="4" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -8587,8 +9018,8 @@
       <c r="N125" s="2" t="n">
         <v>30032</v>
       </c>
-      <c r="O125" t="n">
-        <v>1.5</v>
+      <c r="O125" s="4" t="n">
+        <v>-1.5</v>
       </c>
       <c r="P125" t="n">
         <v>1.850000000000023</v>
@@ -8602,6 +9033,7 @@
       <c r="S125" t="n">
         <v>5.949999999999989</v>
       </c>
+      <c r="T125" s="4" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -8648,8 +9080,8 @@
       <c r="N126" s="2" t="n">
         <v>56386</v>
       </c>
-      <c r="O126" t="n">
-        <v>3.649999999999977</v>
+      <c r="O126" s="4" t="n">
+        <v>-3.649999999999977</v>
       </c>
       <c r="P126" t="n">
         <v>3</v>
@@ -8663,6 +9095,11 @@
       <c r="S126" t="n">
         <v>9.399999999999977</v>
       </c>
+      <c r="T126" s="4" t="n"/>
+      <c r="W126" s="5" t="n"/>
+      <c r="AB126" s="5" t="n"/>
+      <c r="AG126" s="5" t="n"/>
+      <c r="AL126" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
